--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2933436.567978608</v>
+        <v>2930891.975284323</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.1986582043251</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.1712092340068</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.94651187044224</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>15.40229248514512</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5735752579643</v>
       </c>
       <c r="F5" t="n">
-        <v>136.439101533369</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760019</v>
+        <v>92.85788772760021</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425872</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911913055</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>60.63950949433056</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589136</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>79.7707400125265</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>72.89889574101214</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>216.4127801057174</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1151,7 +1151,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.3039884417712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>108.657167487202</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582092</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.52615597052887</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612562</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,10 +1427,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.1884230276014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633182044</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>86.88943397770137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>45.17596778975034</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,13 +2138,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
-        <v>91.89996056624895</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444151</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>137.7610225486951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>603.4370373477799</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>414.017252331295</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148101</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148101</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656067</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>750.10234866528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>750.10234866528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.10234866528</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198763</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198763</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198763</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198763</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>578.6712814315508</v>
+        <v>30.55991817042189</v>
       </c>
       <c r="X3" t="n">
-        <v>578.6712814315508</v>
+        <v>30.55991817042189</v>
       </c>
       <c r="Y3" t="n">
-        <v>389.251496415066</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.118726476538</v>
+        <v>731.3583444302253</v>
       </c>
       <c r="C5" t="n">
-        <v>948.1562095361264</v>
+        <v>362.3958274898136</v>
       </c>
       <c r="D5" t="n">
-        <v>589.890510929376</v>
+        <v>362.3958274898136</v>
       </c>
       <c r="E5" t="n">
-        <v>589.890510929376</v>
+        <v>147.6750444009608</v>
       </c>
       <c r="F5" t="n">
-        <v>452.0732366532457</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077413</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
         <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017224</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030786</v>
+        <v>521.2049416030782</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709213</v>
+        <v>823.5081935709208</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582756</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079245</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332764</v>
+        <v>1621.822248332763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837891</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654066</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.71856654066</v>
+        <v>1586.994975598238</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.71856654066</v>
+        <v>1375.135640734673</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.71856654066</v>
+        <v>1121.497676406037</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.71856654066</v>
+        <v>1121.497676406037</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.71856654066</v>
+        <v>1121.497676406037</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.71856654066</v>
+        <v>1121.497676406037</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.71856654066</v>
+        <v>731.3583444302253</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.7994951237469</v>
+        <v>295.6048725869056</v>
       </c>
       <c r="C6" t="n">
-        <v>626.3464658426199</v>
+        <v>121.1518433057786</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813685</v>
+        <v>121.1518433057786</v>
       </c>
       <c r="E6" t="n">
-        <v>318.174601175913</v>
+        <v>121.1518433057786</v>
       </c>
       <c r="F6" t="n">
-        <v>171.640043202798</v>
+        <v>121.1518433057786</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675781</v>
+        <v>121.1518433057786</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787577</v>
+        <v>61.66788464787571</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806073</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189996</v>
+        <v>399.8722171189994</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223526</v>
+        <v>668.6238185223524</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352514</v>
+        <v>958.897120035251</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228323</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639513</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906555</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906555</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906555</v>
+        <v>1303.087768902149</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906555</v>
+        <v>1107.547150621904</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906555</v>
+        <v>879.4320085774604</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906555</v>
+        <v>879.4320085774604</v>
       </c>
       <c r="W6" t="n">
-        <v>1384.626631114302</v>
+        <v>879.4320085774604</v>
       </c>
       <c r="X6" t="n">
-        <v>1176.775130908769</v>
+        <v>671.5805083719275</v>
       </c>
       <c r="Y6" t="n">
-        <v>969.0148321438148</v>
+        <v>463.8202096069736</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574734</v>
+        <v>64.24066662574729</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584124</v>
+        <v>132.1299861584123</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347985</v>
+        <v>206.9680378347983</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195383</v>
+        <v>287.8841338195381</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934737</v>
+        <v>342.3101561934734</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858028</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.535052004094</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.535052004094</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.535052004094</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858028</v>
+        <v>108.1933045400024</v>
       </c>
       <c r="U7" t="n">
-        <v>289.2425445226447</v>
+        <v>108.1933045400024</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.965392032323</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.965392032323</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>852.6996934255721</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>852.6996934255721</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
         <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642783</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.718007305293</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.718007305293</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.252249044213</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.965392032323</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>495.5620530179271</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>495.5620530179271</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D9" t="n">
-        <v>495.5620530179271</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>336.3245980124716</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>189.7900400393566</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
         <v>89.55356510562316</v>
@@ -4914,19 +4914,19 @@
         <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1400.563316948358</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1165.411208716615</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>911.1738519884138</v>
+        <v>801.6493618097749</v>
       </c>
       <c r="X9" t="n">
-        <v>703.322351782881</v>
+        <v>593.797861604242</v>
       </c>
       <c r="Y9" t="n">
-        <v>495.5620530179271</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>506.6265632319841</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>356.5099238196483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981521</v>
@@ -4984,28 +4984,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>121.9985297867048</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.7311804011399</v>
+        <v>513.8536007400603</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>513.8536007400603</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277245</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453314</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453314</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453314</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797633</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910798</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570806</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279791</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510497</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854695</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648808</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138302</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,37 +5264,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.485273605118</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.500769464729</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368222</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244864</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420933</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441829</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438499</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949688</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6722,13 +6722,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>229.7425191625314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>229.7425191625314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.83088743627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>417.9651836029414</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-3.407865861625516e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.6435571543359</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165144034</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62417772601989</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>30.95754073885493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.5948813009</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813009</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365047</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
@@ -26332,28 +26332,28 @@
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253141</v>
+        <v>270592.3620253137</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231911</v>
+        <v>115410.0540231914</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882012</v>
+        <v>62913.63765882004</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197444</v>
+        <v>27875.25362197459</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.344331790858193e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263457</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687964</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936831</v>
+        <v>76435.73471936829</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819479</v>
+        <v>-228993.7633819483</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136128</v>
+        <v>144252.9847136126</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.37841668</v>
+        <v>323073.3784166797</v>
       </c>
       <c r="E6" t="n">
-        <v>-31927.76766854642</v>
+        <v>-31962.5055939827</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802835</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.4399057188</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="J6" t="n">
-        <v>520450.4951771744</v>
+        <v>520415.7572517387</v>
       </c>
       <c r="K6" t="n">
-        <v>506601.8022468987</v>
+        <v>506567.0643214635</v>
       </c>
       <c r="L6" t="n">
-        <v>541640.1862837446</v>
+        <v>541605.4483583088</v>
       </c>
       <c r="M6" t="n">
-        <v>412369.0593541209</v>
+        <v>412334.3214286853</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.701980283</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802835</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950631</v>
+        <v>758.8996292950628</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594727</v>
+        <v>431.9757039594724</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821584</v>
+        <v>210.429688382158</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262107</v>
+        <v>94.8110352426213</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931523</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666904</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666904</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931523</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666904</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.5351834591554</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>28.6046039560463</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988668</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681128</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377083</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>231.7484712904774</v>
+        <v>64.16939599459951</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>190.2804032921592</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3567948142975</v>
       </c>
       <c r="F5" t="n">
-        <v>270.4369442083425</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425878</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>10.74252923333073</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937503</v>
+        <v>43.32085084937506</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074776</v>
+        <v>44.33060630074779</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>191.0554736665891</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930403</v>
+        <v>30.24193919304032</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589133</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27825,13 +27825,13 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>206.4736434787878</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.2387475828158</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>166.3210615577631</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>189.9339502142824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>26.85006635983324</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.391328691216</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.720665128099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077024</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.127699468416649e-11</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085678</v>
+        <v>3.050852781085677</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429371</v>
+        <v>31.2445460442937</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520277</v>
+        <v>388.0799144520275</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511786</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396811</v>
+        <v>535.7030533968108</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610708</v>
+        <v>544.3712888610705</v>
       </c>
       <c r="O5" t="n">
-        <v>514.03437151915</v>
+        <v>514.0343715191498</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860972</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634663</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098734</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898997</v>
+        <v>69.52130774898994</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868542</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,40 +31361,40 @@
         <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062496</v>
+        <v>56.20152915062494</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721896</v>
+        <v>354.4276051721895</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658093</v>
+        <v>413.6002979658092</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468674</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374461</v>
+        <v>388.3776244374459</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872496</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947726</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378894</v>
+        <v>6.579516597378891</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757165</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673454</v>
+        <v>41.15475366734538</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635582</v>
+        <v>96.75348224635579</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
         <v>214.5197755399142</v>
@@ -31467,16 +31467,16 @@
         <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054722</v>
+        <v>61.5330748605472</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391205</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830812</v>
+        <v>5.84725943883081</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656366</v>
+        <v>0.07464586517656363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>454.5879800486393</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>585.3368606136115</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>344.9857809048118</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>463.4789474089069</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>500.4415752611932</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198457</v>
+        <v>77.89141170198445</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070471</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811913</v>
+        <v>245.6810352811912</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695383</v>
+        <v>305.3568201695381</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644798</v>
+        <v>314.9582252644796</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974632</v>
+        <v>283.936160097463</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308277</v>
+        <v>207.4834477308275</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890168</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092722</v>
+        <v>27.38366498092719</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
         <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.466264043791</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635341</v>
+        <v>293.2053550635339</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930016</v>
+        <v>245.7813799930015</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729194</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872864</v>
+        <v>68.38629016872858</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554498</v>
+        <v>29.98243465554495</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501518</v>
+        <v>68.57507023501512</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230918</v>
+        <v>75.59399159230912</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761605</v>
+        <v>81.73343028761599</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569234</v>
+        <v>54.97578017569228</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235262</v>
+        <v>27.78676100235256</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191202</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>311.9917356041949</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>442.7406161691671</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>325.6375084345479</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
